--- a/data_driven/Testdata/工作簿2.xlsx
+++ b/data_driven/Testdata/工作簿2.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
   <si>
     <t>序号</t>
   </si>
@@ -47,13 +47,25 @@
     <t>y</t>
   </si>
   <si>
+    <t>登陆fail</t>
+  </si>
+  <si>
+    <t>Oct 08 2018 14:34:46</t>
+  </si>
+  <si>
     <t>zzz284118</t>
   </si>
   <si>
+    <t>Oct 08 2018 14:34:14</t>
+  </si>
+  <si>
+    <t>zzz284119</t>
+  </si>
+  <si>
     <t>n</t>
   </si>
   <si>
-    <t>zzz284119</t>
+    <t>登陆忽略</t>
   </si>
   <si>
     <t>zzz284120</t>
@@ -74,7 +86,7 @@
     <t>2206321864@qq.com</t>
   </si>
   <si>
-    <t>Sep 26 2018 17:58:46</t>
+    <t>Oct 08 2018 14:30:25</t>
   </si>
   <si>
     <t>pass</t>
@@ -86,25 +98,52 @@
     <t>2206321865@qq.com</t>
   </si>
   <si>
+    <t>Oct 08 2018 14:34:09</t>
+  </si>
+  <si>
+    <t>中岛三</t>
+  </si>
+  <si>
+    <t>2206321866@qq.com</t>
+  </si>
+  <si>
+    <t>Oct 08 2018 14:34:13</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>2206321867@qq.com</t>
+  </si>
+  <si>
+    <t>2206321868@qq.com</t>
+  </si>
+  <si>
+    <t>2206321869@qq.com</t>
+  </si>
+  <si>
+    <t>2206321870@qq.com</t>
+  </si>
+  <si>
+    <t>登陆pass</t>
+  </si>
+  <si>
+    <t>Oct 08 2018 14:34:51</t>
+  </si>
+  <si>
+    <t>Oct 08 2018 14:34:54</t>
+  </si>
+  <si>
+    <t>Oct 08 2018 14:34:57</t>
+  </si>
+  <si>
+    <t>Oct 08 2018 14:35:00</t>
+  </si>
+  <si>
     <t>忽略</t>
   </si>
   <si>
-    <t>Sep 26 2018 17:50:46</t>
-  </si>
-  <si>
-    <t>中岛三</t>
-  </si>
-  <si>
-    <t>2206321866@qq.com</t>
-  </si>
-  <si>
-    <t>Sep 26 2018 17:58:49</t>
-  </si>
-  <si>
-    <t>Sep 26 2018 17:58:51</t>
-  </si>
-  <si>
-    <t>Sep 26 2018 17:58:52</t>
+    <t>Oct 08 2018 14:35:11</t>
   </si>
 </sst>
 </file>
@@ -478,7 +517,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:G7"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" outlineLevelCol="0"/>
@@ -486,6 +525,7 @@
     <col customWidth="1" max="2" min="2" width="16.1640625"/>
     <col customWidth="1" max="3" min="3" width="16"/>
     <col customWidth="1" max="5" min="5" width="10.5"/>
+    <col customWidth="1" max="6" min="6" width="15"/>
     <col customWidth="1" max="7" min="7" width="25.33203125"/>
   </cols>
   <sheetData>
@@ -528,6 +568,12 @@
       <c r="E2" t="s">
         <v>9</v>
       </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row customHeight="1" ht="15" r="3" spans="1:7">
       <c r="A3" t="n">
@@ -537,19 +583,19 @@
         <v>3031371047</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>11</v>
+      <c r="E3" t="s">
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="4" spans="1:7">
@@ -560,19 +606,19 @@
         <v>3031371048</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="5" spans="1:7">
@@ -583,19 +629,19 @@
         <v>3031371049</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -612,7 +658,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" outlineLevelCol="0"/>
@@ -620,6 +666,7 @@
     <col customWidth="1" max="2" min="2" width="16"/>
     <col customWidth="1" max="3" min="3" width="22"/>
     <col customWidth="1" max="4" min="4" width="24"/>
+    <col customWidth="1" max="6" min="6" width="23.5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -627,13 +674,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -650,10 +697,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="n">
         <v>18301565568</v>
@@ -662,10 +709,10 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -673,10 +720,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D3" t="n">
         <v>18301565569</v>
@@ -685,10 +732,10 @@
         <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -696,10 +743,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D4" t="n">
         <v>18301565570</v>
@@ -708,39 +755,102 @@
         <v>9</v>
       </c>
       <c r="F4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="B5" s="3" t="n"/>
-      <c r="C5" s="1" t="n"/>
+      <c r="C5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="n">
+        <v>18301565570</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="G5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="B6" s="3" t="n"/>
-      <c r="C6" s="1" t="n"/>
+      <c r="A6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="n">
+        <v>18301565570</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>40</v>
+      </c>
+      <c r="G6" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="C7" s="1" t="n"/>
+      <c r="A7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="n">
+        <v>18301565570</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>40</v>
+      </c>
+      <c r="G7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="C8" s="1" t="n"/>
+      <c r="A8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="n">
+        <v>18301565570</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>40</v>
+      </c>
+      <c r="G8" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -748,6 +858,7 @@
     <hyperlink ref="C2" r:id="rId1"/>
     <hyperlink display="2206321864@qq.com" ref="C3" r:id="rId2"/>
     <hyperlink display="2206321864@qq.com" ref="C4" r:id="rId3"/>
+    <hyperlink display="2206321864@qq.com" ref="C8" r:id="rId4"/>
   </hyperlinks>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
